--- a/Code/Results/Cases/Case_5_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_226/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.163919504228488</v>
+        <v>0.6111739799903546</v>
       </c>
       <c r="C2">
-        <v>0.1225643516080375</v>
+        <v>0.1864339052119419</v>
       </c>
       <c r="D2">
-        <v>0.06835637206396683</v>
+        <v>0.05180973644298348</v>
       </c>
       <c r="E2">
-        <v>0.07717050040853124</v>
+        <v>0.1194009475103428</v>
       </c>
       <c r="F2">
-        <v>0.6626657135426797</v>
+        <v>1.068408293977036</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9344474231693027</v>
+        <v>0.3152865101614566</v>
       </c>
       <c r="L2">
-        <v>0.2470072355861106</v>
+        <v>0.1920005324637515</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.098662395448031</v>
+        <v>3.848243232169608</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.01137087484247</v>
+        <v>0.5687642829294077</v>
       </c>
       <c r="C3">
-        <v>0.1235720953195738</v>
+        <v>0.1867681177701606</v>
       </c>
       <c r="D3">
-        <v>0.06380500320365456</v>
+        <v>0.05010185833353376</v>
       </c>
       <c r="E3">
-        <v>0.07239237131366849</v>
+        <v>0.1189125529881245</v>
       </c>
       <c r="F3">
-        <v>0.6366285438325576</v>
+        <v>1.069010116001749</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8143958748990769</v>
+        <v>0.2791099968643493</v>
       </c>
       <c r="L3">
-        <v>0.217611114556945</v>
+        <v>0.1849179742812481</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.063375294685102</v>
+        <v>3.865075140854231</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9180980874211002</v>
+        <v>0.5429188198673671</v>
       </c>
       <c r="C4">
-        <v>0.1242371176897166</v>
+        <v>0.1869959736744136</v>
       </c>
       <c r="D4">
-        <v>0.0609977647439166</v>
+        <v>0.04904136516626068</v>
       </c>
       <c r="E4">
-        <v>0.06957235043946852</v>
+        <v>0.1186737650074363</v>
       </c>
       <c r="F4">
-        <v>0.6218798685407734</v>
+        <v>1.069978404952749</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7407725401805578</v>
+        <v>0.2568984416937923</v>
       </c>
       <c r="L4">
-        <v>0.199785832158085</v>
+        <v>0.1806710816900647</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.045798313811844</v>
+        <v>3.877423588115761</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8801705515274136</v>
+        <v>0.5324360502573597</v>
       </c>
       <c r="C5">
-        <v>0.1245196922523633</v>
+        <v>0.1870945466779546</v>
       </c>
       <c r="D5">
-        <v>0.05985039121257785</v>
+        <v>0.04860624778928724</v>
       </c>
       <c r="E5">
-        <v>0.06845028992949764</v>
+        <v>0.1185918329572502</v>
       </c>
       <c r="F5">
-        <v>0.6161658568072355</v>
+        <v>1.070523567438656</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7107812812819105</v>
+        <v>0.2478477703461408</v>
       </c>
       <c r="L5">
-        <v>0.1925730703448778</v>
+        <v>0.1789661052878415</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.039618443531708</v>
+        <v>3.882961979803781</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8738771838608841</v>
+        <v>0.5306984002389754</v>
       </c>
       <c r="C6">
-        <v>0.1245673108528678</v>
+        <v>0.1871112608505037</v>
       </c>
       <c r="D6">
-        <v>0.05965965938821682</v>
+        <v>0.04853381887907915</v>
       </c>
       <c r="E6">
-        <v>0.06826556856042743</v>
+        <v>0.1185791573128263</v>
       </c>
       <c r="F6">
-        <v>0.6152345092442459</v>
+        <v>1.070623186081505</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.705801588153335</v>
+        <v>0.2463449706154677</v>
       </c>
       <c r="L6">
-        <v>0.1913783425895588</v>
+        <v>0.1786845472901746</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.038650359530351</v>
+        <v>3.883912203790487</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9175862734662132</v>
+        <v>0.5427772444618597</v>
       </c>
       <c r="C7">
-        <v>0.1242408818071397</v>
+        <v>0.18699727987158</v>
       </c>
       <c r="D7">
-        <v>0.06098230490378853</v>
+        <v>0.0490355089686787</v>
       </c>
       <c r="E7">
-        <v>0.06955711004036047</v>
+        <v>0.1186725977665688</v>
       </c>
       <c r="F7">
-        <v>0.6218016276171738</v>
+        <v>1.069985147510678</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7403680383363564</v>
+        <v>0.2567763776385732</v>
       </c>
       <c r="L7">
-        <v>0.1996883577010067</v>
+        <v>0.1806479837753869</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.045711048610997</v>
+        <v>3.877496230868786</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.111228743671916</v>
+        <v>0.5965111530578042</v>
       </c>
       <c r="C8">
-        <v>0.1229021808865127</v>
+        <v>0.186544455889571</v>
       </c>
       <c r="D8">
-        <v>0.06678955746563275</v>
+        <v>0.05122333189697059</v>
       </c>
       <c r="E8">
-        <v>0.07549846912282376</v>
+        <v>0.1192198786790577</v>
       </c>
       <c r="F8">
-        <v>0.6534217222983258</v>
+        <v>1.06849153236017</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.893028060966941</v>
+        <v>0.3028129194118208</v>
       </c>
       <c r="L8">
-        <v>0.2368217559196211</v>
+        <v>0.1895373665811206</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.085618569392182</v>
+        <v>3.853628928863486</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.494903896174264</v>
+        <v>0.7034031555612899</v>
       </c>
       <c r="C9">
-        <v>0.1206471703636254</v>
+        <v>0.1858351020294116</v>
       </c>
       <c r="D9">
-        <v>0.07808788709861858</v>
+        <v>0.05541885827135928</v>
       </c>
       <c r="E9">
-        <v>0.08812357485875921</v>
+        <v>0.1207773541942601</v>
       </c>
       <c r="F9">
-        <v>0.7259798577746253</v>
+        <v>1.070314351611025</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.193665069125046</v>
+        <v>0.3930818299906491</v>
       </c>
       <c r="L9">
-        <v>0.3116675712381607</v>
+        <v>0.2077757740710808</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.198497147122566</v>
+        <v>3.822806458634261</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.780445630400152</v>
+        <v>0.7828429776635915</v>
       </c>
       <c r="C10">
-        <v>0.1192209241969593</v>
+        <v>0.1854214326345556</v>
       </c>
       <c r="D10">
-        <v>0.08635130053841777</v>
+        <v>0.0584427635924456</v>
       </c>
       <c r="E10">
-        <v>0.09809911222281187</v>
+        <v>0.1222165488624398</v>
       </c>
       <c r="F10">
-        <v>0.7867963590029206</v>
+        <v>1.074553548128563</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.416180273409338</v>
+        <v>0.4593818799429812</v>
       </c>
       <c r="L10">
-        <v>0.3682661625056483</v>
+        <v>0.2216666099973423</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.305750075041772</v>
+        <v>3.80991382820838</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.911440797187623</v>
+        <v>0.819175228334359</v>
       </c>
       <c r="C11">
-        <v>0.118623374559192</v>
+        <v>0.1852562934352733</v>
       </c>
       <c r="D11">
-        <v>0.09010661460225577</v>
+        <v>0.05980555961131984</v>
       </c>
       <c r="E11">
-        <v>0.102814455583939</v>
+        <v>0.1229352700255539</v>
       </c>
       <c r="F11">
-        <v>0.8163501316913653</v>
+        <v>1.077112569984678</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.517971787398608</v>
+        <v>0.4895362296731207</v>
       </c>
       <c r="L11">
-        <v>0.3944530976286842</v>
+        <v>0.2280925395396736</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.360591328980178</v>
+        <v>3.806168782541278</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.961230115702818</v>
+        <v>0.8329607982139748</v>
       </c>
       <c r="C12">
-        <v>0.1184045859886851</v>
+        <v>0.1851970491288029</v>
       </c>
       <c r="D12">
-        <v>0.09152847897899363</v>
+        <v>0.06031975711225357</v>
       </c>
       <c r="E12">
-        <v>0.1046277925826189</v>
+        <v>0.1232166276965394</v>
       </c>
       <c r="F12">
-        <v>0.82783583969821</v>
+        <v>1.078172310049027</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.556617642813279</v>
+        <v>0.5009536692641916</v>
       </c>
       <c r="L12">
-        <v>0.4044405976893586</v>
+        <v>0.2305412088001333</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.382297528198251</v>
+        <v>3.805055604291169</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.950498463415329</v>
+        <v>0.8299906238260064</v>
       </c>
       <c r="C13">
-        <v>0.118451370850714</v>
+        <v>0.1852096624744561</v>
       </c>
       <c r="D13">
-        <v>0.09122225770763492</v>
+        <v>0.06020909875352487</v>
       </c>
       <c r="E13">
-        <v>0.1042359871735137</v>
+        <v>0.1231556236105256</v>
       </c>
       <c r="F13">
-        <v>0.8253487147754726</v>
+        <v>1.077940042181766</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.548289835672563</v>
+        <v>0.4984947879212314</v>
       </c>
       <c r="L13">
-        <v>0.402286319134376</v>
+        <v>0.230013164228339</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.377579796421116</v>
+        <v>3.805281780235987</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.915533144911393</v>
+        <v>0.8203088313983926</v>
       </c>
       <c r="C14">
-        <v>0.118605223844142</v>
+        <v>0.1852513535594582</v>
       </c>
       <c r="D14">
-        <v>0.09022359398090174</v>
+        <v>0.05984790043843446</v>
       </c>
       <c r="E14">
-        <v>0.1029630706659717</v>
+        <v>0.1229582333127652</v>
       </c>
       <c r="F14">
-        <v>0.8172890321178983</v>
+        <v>1.077197937707027</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.521149101120074</v>
+        <v>0.4904755794527205</v>
       </c>
       <c r="L14">
-        <v>0.3952733039933491</v>
+        <v>0.2282936865903764</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.362357879485501</v>
+        <v>3.80607108738397</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.894140683347445</v>
+        <v>0.8143819942825132</v>
       </c>
       <c r="C15">
-        <v>0.1187004424799341</v>
+        <v>0.1852773183719592</v>
       </c>
       <c r="D15">
-        <v>0.08961186949718325</v>
+        <v>0.05962641261127288</v>
       </c>
       <c r="E15">
-        <v>0.1021870537325107</v>
+        <v>0.1228385229406044</v>
       </c>
       <c r="F15">
-        <v>0.8123912811558114</v>
+        <v>1.076755188781178</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.504538146072946</v>
+        <v>0.4855633906392427</v>
       </c>
       <c r="L15">
-        <v>0.3909871276047028</v>
+        <v>0.2272424486488944</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.353158432039919</v>
+        <v>3.8065942839375</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.771909116937081</v>
+        <v>0.7804724406332753</v>
       </c>
       <c r="C16">
-        <v>0.1192610168799391</v>
+        <v>0.1854326865454894</v>
       </c>
       <c r="D16">
-        <v>0.08610583550890283</v>
+        <v>0.05835344216558269</v>
       </c>
       <c r="E16">
-        <v>0.09779471031648157</v>
+        <v>0.122170865963021</v>
       </c>
       <c r="F16">
-        <v>0.784904857545385</v>
+        <v>1.074399000504968</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.409540892179223</v>
+        <v>0.4574110601098766</v>
       </c>
       <c r="L16">
-        <v>0.3665642924494961</v>
+        <v>0.2212488062662743</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.302293608075388</v>
+        <v>3.810201246253939</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.697223838120806</v>
+        <v>0.7597194195236625</v>
       </c>
       <c r="C17">
-        <v>0.1196181209862033</v>
+        <v>0.185533884829141</v>
       </c>
       <c r="D17">
-        <v>0.08395427451841186</v>
+        <v>0.05756922209833704</v>
       </c>
       <c r="E17">
-        <v>0.09514712652340052</v>
+        <v>0.1217776689311378</v>
       </c>
       <c r="F17">
-        <v>0.7685421369042871</v>
+        <v>1.073115076265665</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.351421001516997</v>
+        <v>0.4401386463702579</v>
       </c>
       <c r="L17">
-        <v>0.3516997365503869</v>
+        <v>0.2175992386418528</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.272686987266439</v>
+        <v>3.812957061874471</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.654368783847161</v>
+        <v>0.7478011938877671</v>
       </c>
       <c r="C18">
-        <v>0.1198283345256463</v>
+        <v>0.1855942614929447</v>
       </c>
       <c r="D18">
-        <v>0.08271637764943307</v>
+        <v>0.0571169566854266</v>
       </c>
       <c r="E18">
-        <v>0.09364086380612235</v>
+        <v>0.1215575394536934</v>
       </c>
       <c r="F18">
-        <v>0.7593069826009469</v>
+        <v>1.07243595023975</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.318044310157063</v>
+        <v>0.4302034883363035</v>
       </c>
       <c r="L18">
-        <v>0.3431909470132553</v>
+        <v>0.2155101714930936</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.256223215047186</v>
+        <v>3.814741657846554</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.639875547109483</v>
+        <v>0.7437690614929124</v>
       </c>
       <c r="C19">
-        <v>0.1199003330225423</v>
+        <v>0.1856150774133312</v>
       </c>
       <c r="D19">
-        <v>0.08229717233292178</v>
+        <v>0.05696362154498757</v>
       </c>
       <c r="E19">
-        <v>0.09313364760712517</v>
+        <v>0.1214840429436812</v>
       </c>
       <c r="F19">
-        <v>0.7562097198025128</v>
+        <v>1.072216203310745</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.306752000845307</v>
+        <v>0.4268395404741909</v>
       </c>
       <c r="L19">
-        <v>0.3403168145910769</v>
+        <v>0.2148045803687495</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.250743917858927</v>
+        <v>3.8153801550732</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.70516348076157</v>
+        <v>0.7619267183089562</v>
       </c>
       <c r="C20">
-        <v>0.1195796073013113</v>
+        <v>0.1855228876701318</v>
       </c>
       <c r="D20">
-        <v>0.08418334833051944</v>
+        <v>0.05765282832063434</v>
       </c>
       <c r="E20">
-        <v>0.09542723708027978</v>
+        <v>0.1218189017433211</v>
       </c>
       <c r="F20">
-        <v>0.7702655750567686</v>
+        <v>1.073245609234874</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.35760242155385</v>
+        <v>0.4419773821011574</v>
       </c>
       <c r="L20">
-        <v>0.3532778051147147</v>
+        <v>0.2179866998598357</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.275779686779941</v>
+        <v>3.812643049516197</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.92579808783583</v>
+        <v>0.8231518719019277</v>
       </c>
       <c r="C21">
-        <v>0.1185598291895289</v>
+        <v>0.1852390187596455</v>
       </c>
       <c r="D21">
-        <v>0.09051692800446176</v>
+        <v>0.0599540439127253</v>
       </c>
       <c r="E21">
-        <v>0.1033361857462829</v>
+        <v>0.123015962221686</v>
       </c>
       <c r="F21">
-        <v>0.8196481778010138</v>
+        <v>1.077413450248827</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.529118139472075</v>
+        <v>0.492831056309825</v>
       </c>
       <c r="L21">
-        <v>0.3973312024239277</v>
+        <v>0.2287983238894213</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.366802867148465</v>
+        <v>3.805830970203999</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.071083272552585</v>
+        <v>0.8633250742964833</v>
       </c>
       <c r="C22">
-        <v>0.1179370694561115</v>
+        <v>0.1850726621147416</v>
       </c>
       <c r="D22">
-        <v>0.09465535470572206</v>
+        <v>0.06144714676264584</v>
       </c>
       <c r="E22">
-        <v>0.1086679737988518</v>
+        <v>0.1238518914585853</v>
       </c>
       <c r="F22">
-        <v>0.8536500014573107</v>
+        <v>1.080666016076222</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.641803564376602</v>
+        <v>0.5260587187786712</v>
       </c>
       <c r="L22">
-        <v>0.4265409797819615</v>
+        <v>0.2359535483608255</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.431800729233686</v>
+        <v>3.803156663553494</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.993433193414319</v>
+        <v>0.8418695465833821</v>
       </c>
       <c r="C23">
-        <v>0.1182654047142506</v>
+        <v>0.1851597034081749</v>
       </c>
       <c r="D23">
-        <v>0.09244656119003736</v>
+        <v>0.06065125260880677</v>
       </c>
       <c r="E23">
-        <v>0.105806621290558</v>
+        <v>0.1234008419602048</v>
       </c>
       <c r="F23">
-        <v>0.8353365393779768</v>
+        <v>1.078881684840354</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.58160096080465</v>
+        <v>0.5083254050420294</v>
       </c>
       <c r="L23">
-        <v>0.4109101598013893</v>
+        <v>0.2321265300237911</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.396581978858251</v>
+        <v>3.804421273950823</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.701573713273291</v>
+        <v>0.7609287581027502</v>
       </c>
       <c r="C24">
-        <v>0.1195970040546754</v>
+        <v>0.1855278526409379</v>
       </c>
       <c r="D24">
-        <v>0.08407978700075347</v>
+        <v>0.05761503432784565</v>
       </c>
       <c r="E24">
-        <v>0.09530054983718728</v>
+        <v>0.1218002419333963</v>
       </c>
       <c r="F24">
-        <v>0.7694858746591962</v>
+        <v>1.073186411438598</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.35480768699756</v>
+        <v>0.4411461052686434</v>
       </c>
       <c r="L24">
-        <v>0.3525642455239932</v>
+        <v>0.2178115002383265</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.274379746083923</v>
+        <v>3.812784390768627</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.390563448875014</v>
+        <v>0.674325425920415</v>
       </c>
       <c r="C25">
-        <v>0.121217114485944</v>
+        <v>0.1860080237745052</v>
       </c>
       <c r="D25">
-        <v>0.0750392954715835</v>
+        <v>0.05429408431543692</v>
       </c>
       <c r="E25">
-        <v>0.08459332528314789</v>
+        <v>0.1203042032760493</v>
       </c>
       <c r="F25">
-        <v>0.7051145463619619</v>
+        <v>1.069312189369448</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.112113378635399</v>
+        <v>0.368664207379851</v>
       </c>
       <c r="L25">
-        <v>0.2911656887869896</v>
+        <v>0.2027555266339078</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.163935101635587</v>
+        <v>3.829432809506415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_226/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6111739799903546</v>
+        <v>1.163919504228261</v>
       </c>
       <c r="C2">
-        <v>0.1864339052119419</v>
+        <v>0.1225643516075543</v>
       </c>
       <c r="D2">
-        <v>0.05180973644298348</v>
+        <v>0.06835637206375367</v>
       </c>
       <c r="E2">
-        <v>0.1194009475103428</v>
+        <v>0.07717050040851348</v>
       </c>
       <c r="F2">
-        <v>1.068408293977036</v>
+        <v>0.6626657135426726</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3152865101614566</v>
+        <v>0.9344474231691891</v>
       </c>
       <c r="L2">
-        <v>0.1920005324637515</v>
+        <v>0.2470072355861959</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.848243232169608</v>
+        <v>2.098662395448002</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5687642829294077</v>
+        <v>1.011370874842356</v>
       </c>
       <c r="C3">
-        <v>0.1867681177701606</v>
+        <v>0.1235720953192505</v>
       </c>
       <c r="D3">
-        <v>0.05010185833353376</v>
+        <v>0.06380500320350535</v>
       </c>
       <c r="E3">
-        <v>0.1189125529881245</v>
+        <v>0.07239237131367204</v>
       </c>
       <c r="F3">
-        <v>1.069010116001749</v>
+        <v>0.6366285438325647</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2791099968643493</v>
+        <v>0.8143958748989348</v>
       </c>
       <c r="L3">
-        <v>0.1849179742812481</v>
+        <v>0.2176111145570303</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.865075140854231</v>
+        <v>2.06337529468513</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5429188198673671</v>
+        <v>0.9180980874211002</v>
       </c>
       <c r="C4">
-        <v>0.1869959736744136</v>
+        <v>0.1242371176897947</v>
       </c>
       <c r="D4">
-        <v>0.04904136516626068</v>
+        <v>0.06099776474415108</v>
       </c>
       <c r="E4">
-        <v>0.1186737650074363</v>
+        <v>0.06957235043947563</v>
       </c>
       <c r="F4">
-        <v>1.069978404952749</v>
+        <v>0.6218798685407734</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2568984416937923</v>
+        <v>0.7407725401804583</v>
       </c>
       <c r="L4">
-        <v>0.1806710816900647</v>
+        <v>0.1997858321581276</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.877423588115761</v>
+        <v>2.045798313811815</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5324360502573597</v>
+        <v>0.880170551527641</v>
       </c>
       <c r="C5">
-        <v>0.1870945466779546</v>
+        <v>0.1245196922525267</v>
       </c>
       <c r="D5">
-        <v>0.04860624778928724</v>
+        <v>0.05985039121269153</v>
       </c>
       <c r="E5">
-        <v>0.1185918329572502</v>
+        <v>0.0684502899295083</v>
       </c>
       <c r="F5">
-        <v>1.070523567438656</v>
+        <v>0.6161658568072426</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2478477703461408</v>
+        <v>0.7107812812818537</v>
       </c>
       <c r="L5">
-        <v>0.1789661052878415</v>
+        <v>0.1925730703450625</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.882961979803781</v>
+        <v>2.039618443531566</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5306984002389754</v>
+        <v>0.8738771838609409</v>
       </c>
       <c r="C6">
-        <v>0.1871112608505037</v>
+        <v>0.124567310852953</v>
       </c>
       <c r="D6">
-        <v>0.04853381887907915</v>
+        <v>0.05965965938813866</v>
       </c>
       <c r="E6">
-        <v>0.1185791573128263</v>
+        <v>0.06826556856043098</v>
       </c>
       <c r="F6">
-        <v>1.070623186081505</v>
+        <v>0.615234509244253</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2463449706154677</v>
+        <v>0.705801588153335</v>
       </c>
       <c r="L6">
-        <v>0.1786845472901746</v>
+        <v>0.1913783425896298</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.883912203790487</v>
+        <v>2.038650359530351</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5427772444618597</v>
+        <v>0.9175862734662985</v>
       </c>
       <c r="C7">
-        <v>0.18699727987158</v>
+        <v>0.1242408818072285</v>
       </c>
       <c r="D7">
-        <v>0.0490355089686787</v>
+        <v>0.06098230490373169</v>
       </c>
       <c r="E7">
-        <v>0.1186725977665688</v>
+        <v>0.06955711004037113</v>
       </c>
       <c r="F7">
-        <v>1.069985147510678</v>
+        <v>0.6218016276171525</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2567763776385732</v>
+        <v>0.7403680383363849</v>
       </c>
       <c r="L7">
-        <v>0.1806479837753869</v>
+        <v>0.1996883577010351</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.877496230868786</v>
+        <v>2.045711048611054</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5965111530578042</v>
+        <v>1.111228743671916</v>
       </c>
       <c r="C8">
-        <v>0.186544455889571</v>
+        <v>0.1229021808865021</v>
       </c>
       <c r="D8">
-        <v>0.05122333189697059</v>
+        <v>0.06678955746578907</v>
       </c>
       <c r="E8">
-        <v>0.1192198786790577</v>
+        <v>0.07549846912279534</v>
       </c>
       <c r="F8">
-        <v>1.06849153236017</v>
+        <v>0.6534217222983116</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3028129194118208</v>
+        <v>0.8930280609669126</v>
       </c>
       <c r="L8">
-        <v>0.1895373665811206</v>
+        <v>0.2368217559195926</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.853628928863486</v>
+        <v>2.08561856939221</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7034031555612899</v>
+        <v>1.494903896174094</v>
       </c>
       <c r="C9">
-        <v>0.1858351020294116</v>
+        <v>0.1206471703633802</v>
       </c>
       <c r="D9">
-        <v>0.05541885827135928</v>
+        <v>0.07808788709878911</v>
       </c>
       <c r="E9">
-        <v>0.1207773541942601</v>
+        <v>0.08812357485875566</v>
       </c>
       <c r="F9">
-        <v>1.070314351611025</v>
+        <v>0.7259798577746395</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3930818299906491</v>
+        <v>1.193665069125103</v>
       </c>
       <c r="L9">
-        <v>0.2077757740710808</v>
+        <v>0.3116675712381607</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.822806458634261</v>
+        <v>2.198497147122623</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7828429776635915</v>
+        <v>1.780445630399981</v>
       </c>
       <c r="C10">
-        <v>0.1854214326345556</v>
+        <v>0.1192209241975419</v>
       </c>
       <c r="D10">
-        <v>0.0584427635924456</v>
+        <v>0.08635130053882989</v>
       </c>
       <c r="E10">
-        <v>0.1222165488624398</v>
+        <v>0.09809911222281897</v>
       </c>
       <c r="F10">
-        <v>1.074553548128563</v>
+        <v>0.7867963590028921</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4593818799429812</v>
+        <v>1.416180273409282</v>
       </c>
       <c r="L10">
-        <v>0.2216666099973423</v>
+        <v>0.3682661625055488</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.80991382820838</v>
+        <v>2.305750075041772</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.819175228334359</v>
+        <v>1.911440797187765</v>
       </c>
       <c r="C11">
-        <v>0.1852562934352733</v>
+        <v>0.1186233745594194</v>
       </c>
       <c r="D11">
-        <v>0.05980555961131984</v>
+        <v>0.09010661460249736</v>
       </c>
       <c r="E11">
-        <v>0.1229352700255539</v>
+        <v>0.1028144555839425</v>
       </c>
       <c r="F11">
-        <v>1.077112569984678</v>
+        <v>0.8163501316913653</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4895362296731207</v>
+        <v>1.517971787398722</v>
       </c>
       <c r="L11">
-        <v>0.2280925395396736</v>
+        <v>0.3944530976287268</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.806168782541278</v>
+        <v>2.360591328980206</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8329607982139748</v>
+        <v>1.961230115702904</v>
       </c>
       <c r="C12">
-        <v>0.1851970491288029</v>
+        <v>0.1184045859885714</v>
       </c>
       <c r="D12">
-        <v>0.06031975711225357</v>
+        <v>0.09152847897930627</v>
       </c>
       <c r="E12">
-        <v>0.1232166276965394</v>
+        <v>0.1046277925826082</v>
       </c>
       <c r="F12">
-        <v>1.078172310049027</v>
+        <v>0.8278358396981957</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5009536692641916</v>
+        <v>1.556617642813421</v>
       </c>
       <c r="L12">
-        <v>0.2305412088001333</v>
+        <v>0.4044405976894154</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.805055604291169</v>
+        <v>2.382297528198279</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8299906238260064</v>
+        <v>1.95049846341513</v>
       </c>
       <c r="C13">
-        <v>0.1852096624744561</v>
+        <v>0.1184513708508348</v>
       </c>
       <c r="D13">
-        <v>0.06020909875352487</v>
+        <v>0.09122225770757098</v>
       </c>
       <c r="E13">
-        <v>0.1231556236105256</v>
+        <v>0.1042359871735137</v>
       </c>
       <c r="F13">
-        <v>1.077940042181766</v>
+        <v>0.8253487147754726</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4984947879212314</v>
+        <v>1.54828983567262</v>
       </c>
       <c r="L13">
-        <v>0.230013164228339</v>
+        <v>0.402286319134447</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.805281780235987</v>
+        <v>2.377579796421202</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8203088313983926</v>
+        <v>1.915533144911393</v>
       </c>
       <c r="C14">
-        <v>0.1852513535594582</v>
+        <v>0.1186052238442414</v>
       </c>
       <c r="D14">
-        <v>0.05984790043843446</v>
+        <v>0.09022359398078095</v>
       </c>
       <c r="E14">
-        <v>0.1229582333127652</v>
+        <v>0.1029630706659503</v>
       </c>
       <c r="F14">
-        <v>1.077197937707027</v>
+        <v>0.8172890321178841</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4904755794527205</v>
+        <v>1.521149101120102</v>
       </c>
       <c r="L14">
-        <v>0.2282936865903764</v>
+        <v>0.3952733039932639</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.80607108738397</v>
+        <v>2.362357879485501</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8143819942825132</v>
+        <v>1.894140683347302</v>
       </c>
       <c r="C15">
-        <v>0.1852773183719592</v>
+        <v>0.1187004424800335</v>
       </c>
       <c r="D15">
-        <v>0.05962641261127288</v>
+        <v>0.08961186949734667</v>
       </c>
       <c r="E15">
-        <v>0.1228385229406044</v>
+        <v>0.1021870537325142</v>
       </c>
       <c r="F15">
-        <v>1.076755188781178</v>
+        <v>0.8123912811558114</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4855633906392427</v>
+        <v>1.50453814607306</v>
       </c>
       <c r="L15">
-        <v>0.2272424486488944</v>
+        <v>0.3909871276047454</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.8065942839375</v>
+        <v>2.353158432039976</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7804724406332753</v>
+        <v>1.771909116937252</v>
       </c>
       <c r="C16">
-        <v>0.1854326865454894</v>
+        <v>0.1192610168797046</v>
       </c>
       <c r="D16">
-        <v>0.05835344216558269</v>
+        <v>0.08610583550908046</v>
       </c>
       <c r="E16">
-        <v>0.122170865963021</v>
+        <v>0.09779471031649933</v>
       </c>
       <c r="F16">
-        <v>1.074399000504968</v>
+        <v>0.7849048575453708</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4574110601098766</v>
+        <v>1.409540892179166</v>
       </c>
       <c r="L16">
-        <v>0.2212488062662743</v>
+        <v>0.366564292449425</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.810201246253939</v>
+        <v>2.30229360807536</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7597194195236625</v>
+        <v>1.697223838120664</v>
       </c>
       <c r="C17">
-        <v>0.185533884829141</v>
+        <v>0.1196181209860683</v>
       </c>
       <c r="D17">
-        <v>0.05756922209833704</v>
+        <v>0.08395427451853266</v>
       </c>
       <c r="E17">
-        <v>0.1217776689311378</v>
+        <v>0.09514712652338986</v>
       </c>
       <c r="F17">
-        <v>1.073115076265665</v>
+        <v>0.7685421369042871</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4401386463702579</v>
+        <v>1.351421001517025</v>
       </c>
       <c r="L17">
-        <v>0.2175992386418528</v>
+        <v>0.3516997365501595</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.812957061874471</v>
+        <v>2.272686987266411</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7478011938877671</v>
+        <v>1.654368783846962</v>
       </c>
       <c r="C18">
-        <v>0.1855942614929447</v>
+        <v>0.1198283345254296</v>
       </c>
       <c r="D18">
-        <v>0.0571169566854266</v>
+        <v>0.08271637764949702</v>
       </c>
       <c r="E18">
-        <v>0.1215575394536934</v>
+        <v>0.0936408638061188</v>
       </c>
       <c r="F18">
-        <v>1.07243595023975</v>
+        <v>0.7593069826009327</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4302034883363035</v>
+        <v>1.318044310157148</v>
       </c>
       <c r="L18">
-        <v>0.2155101714930936</v>
+        <v>0.3431909470132979</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.814741657846554</v>
+        <v>2.256223215047243</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7437690614929124</v>
+        <v>1.639875547109511</v>
       </c>
       <c r="C19">
-        <v>0.1856150774133312</v>
+        <v>0.1199003330221906</v>
       </c>
       <c r="D19">
-        <v>0.05696362154498757</v>
+        <v>0.08229717233270151</v>
       </c>
       <c r="E19">
-        <v>0.1214840429436812</v>
+        <v>0.09313364760713227</v>
       </c>
       <c r="F19">
-        <v>1.072216203310745</v>
+        <v>0.756209719802527</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4268395404741909</v>
+        <v>1.306752000845336</v>
       </c>
       <c r="L19">
-        <v>0.2148045803687495</v>
+        <v>0.3403168145910485</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.8153801550732</v>
+        <v>2.250743917858927</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7619267183089562</v>
+        <v>1.705163480761598</v>
       </c>
       <c r="C20">
-        <v>0.1855228876701318</v>
+        <v>0.1195796073015458</v>
       </c>
       <c r="D20">
-        <v>0.05765282832063434</v>
+        <v>0.08418334833076102</v>
       </c>
       <c r="E20">
-        <v>0.1218189017433211</v>
+        <v>0.09542723708029399</v>
       </c>
       <c r="F20">
-        <v>1.073245609234874</v>
+        <v>0.770265575056797</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4419773821011574</v>
+        <v>1.357602421553707</v>
       </c>
       <c r="L20">
-        <v>0.2179866998598357</v>
+        <v>0.3532778051147716</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.812643049516197</v>
+        <v>2.275779686779885</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8231518719019277</v>
+        <v>1.925798087835688</v>
       </c>
       <c r="C21">
-        <v>0.1852390187596455</v>
+        <v>0.1185598291891736</v>
       </c>
       <c r="D21">
-        <v>0.0599540439127253</v>
+        <v>0.09051692800411359</v>
       </c>
       <c r="E21">
-        <v>0.123015962221686</v>
+        <v>0.1033361857462936</v>
       </c>
       <c r="F21">
-        <v>1.077413450248827</v>
+        <v>0.8196481778009854</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.492831056309825</v>
+        <v>1.529118139472132</v>
       </c>
       <c r="L21">
-        <v>0.2287983238894213</v>
+        <v>0.3973312024238709</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.805830970203999</v>
+        <v>2.366802867148465</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8633250742964833</v>
+        <v>2.071083272552528</v>
       </c>
       <c r="C22">
-        <v>0.1850726621147416</v>
+        <v>0.1179370694561257</v>
       </c>
       <c r="D22">
-        <v>0.06144714676264584</v>
+        <v>0.09465535470548758</v>
       </c>
       <c r="E22">
-        <v>0.1238518914585853</v>
+        <v>0.1086679737988554</v>
       </c>
       <c r="F22">
-        <v>1.080666016076222</v>
+        <v>0.8536500014573249</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5260587187786712</v>
+        <v>1.64180356437663</v>
       </c>
       <c r="L22">
-        <v>0.2359535483608255</v>
+        <v>0.4265409797819473</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.803156663553494</v>
+        <v>2.431800729233714</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8418695465833821</v>
+        <v>1.993433193414205</v>
       </c>
       <c r="C23">
-        <v>0.1851597034081749</v>
+        <v>0.1182654047140232</v>
       </c>
       <c r="D23">
-        <v>0.06065125260880677</v>
+        <v>0.09244656119015104</v>
       </c>
       <c r="E23">
-        <v>0.1234008419602048</v>
+        <v>0.1058066212905793</v>
       </c>
       <c r="F23">
-        <v>1.078881684840354</v>
+        <v>0.8353365393779768</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5083254050420294</v>
+        <v>1.58160096080465</v>
       </c>
       <c r="L23">
-        <v>0.2321265300237911</v>
+        <v>0.4109101598014462</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.804421273950823</v>
+        <v>2.396581978858251</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7609287581027502</v>
+        <v>1.701573713273376</v>
       </c>
       <c r="C24">
-        <v>0.1855278526409379</v>
+        <v>0.1195970040545404</v>
       </c>
       <c r="D24">
-        <v>0.05761503432784565</v>
+        <v>0.08407978700080321</v>
       </c>
       <c r="E24">
-        <v>0.1218002419333963</v>
+        <v>0.09530054983718728</v>
       </c>
       <c r="F24">
-        <v>1.073186411438598</v>
+        <v>0.7694858746591819</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4411461052686434</v>
+        <v>1.35480768699756</v>
       </c>
       <c r="L24">
-        <v>0.2178115002383265</v>
+        <v>0.352564245523908</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.812784390768627</v>
+        <v>2.274379746083866</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.674325425920415</v>
+        <v>1.390563448874843</v>
       </c>
       <c r="C25">
-        <v>0.1860080237745052</v>
+        <v>0.1212171144861678</v>
       </c>
       <c r="D25">
-        <v>0.05429408431543692</v>
+        <v>0.0750392954715835</v>
       </c>
       <c r="E25">
-        <v>0.1203042032760493</v>
+        <v>0.08459332528317631</v>
       </c>
       <c r="F25">
-        <v>1.069312189369448</v>
+        <v>0.7051145463619761</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.368664207379851</v>
+        <v>1.112113378635485</v>
       </c>
       <c r="L25">
-        <v>0.2027555266339078</v>
+        <v>0.2911656887868901</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.829432809506415</v>
+        <v>2.163935101635644</v>
       </c>
     </row>
   </sheetData>
